--- a/Common.xlsx
+++ b/Common.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CARES\16Oct2024\CARES---Selenium-Automation-master (12)\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\newData\Latestfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8CD8E-F034-4B18-8CF2-F0FDB452732B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D276B9B1-A9DC-40AD-8F51-1F806E03F3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>testT4239</t>
   </si>
 </sst>
 </file>
@@ -178,10 +181,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -792,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -805,6 +811,47 @@
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -973,6 +1020,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -982,7 +1038,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1199,16 +1255,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1218,7 +1273,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1235,12 +1290,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\newData\Latestfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D276B9B1-A9DC-40AD-8F51-1F806E03F3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15E31F1-853C-42D8-8366-E6E51A5CF4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -557,6 +557,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
@@ -571,6 +574,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
@@ -658,6 +664,9 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1020,25 +1029,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1255,25 +1245,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1290,4 +1281,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\Negative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15E31F1-853C-42D8-8366-E6E51A5CF4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD4DB3B-1DB6-427B-9B45-C32DB1FB4F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>testT4239</t>
+  </si>
+  <si>
+    <t>testT4116_Negative</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -567,40 +570,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -608,13 +606,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -625,21 +623,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -647,64 +650,64 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -712,16 +715,16 @@
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -738,17 +741,15 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -767,7 +768,7 @@
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -776,6 +777,11 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -784,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -795,10 +801,10 @@
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -812,36 +818,30 @@
         <v>9</v>
       </c>
       <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -854,13 +854,33 @@
       <c r="D19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="G19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1029,6 +1049,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1245,16 +1275,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1265,6 +1285,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1283,16 +1313,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\Negative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD4DB3B-1DB6-427B-9B45-C32DB1FB4F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB11AE2-8064-44ED-AE0B-DB39211803F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -597,8 +597,8 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -1049,13 +1049,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1276,20 +1275,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1314,9 +1312,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB11AE2-8064-44ED-AE0B-DB39211803F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3626850-CF98-464F-B0FB-E4ED97C65248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>testT4116_Negative</t>
+  </si>
+  <si>
+    <t>testT4250</t>
   </si>
 </sst>
 </file>
@@ -184,13 +187,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -745,14 +752,16 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -881,6 +890,29 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -889,10 +921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,18 +1075,39 @@
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1275,19 +1328,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1312,11 +1366,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3626850-CF98-464F-B0FB-E4ED97C65248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF4AA2-6F75-4622-BFE4-1D606BC60D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -921,10 +921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,6 +1092,26 @@
         <v>29</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF4AA2-6F75-4622-BFE4-1D606BC60D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108E14C-F08C-4CA2-A2E9-D504BA7A95F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -167,12 +167,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -198,6 +204,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +524,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -686,20 +695,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -924,7 +933,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,23 +1104,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1121,16 +1130,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1347,7 +1346,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1356,17 +1355,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1385,10 +1384,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\17Dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108E14C-F08C-4CA2-A2E9-D504BA7A95F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6301F78-0CEA-4A25-85F8-EABCEBDC50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="35">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>testT4250</t>
+  </si>
+  <si>
+    <t>testT2901_1</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -712,35 +715,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -748,48 +751,46 @@
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
+      <c r="A14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -805,7 +806,7 @@
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -814,6 +815,11 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -822,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -833,10 +839,10 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -850,36 +856,30 @@
         <v>9</v>
       </c>
       <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -892,36 +892,56 @@
       <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="G20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="G22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -930,14 +950,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -1124,12 +1145,51 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1346,26 +1406,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1382,22 +1441,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6301F78-0CEA-4A25-85F8-EABCEBDC50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C1412-EEA8-4EE3-A163-C2F5C7E2EB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -170,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,8 +207,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -210,6 +214,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -698,37 +704,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="G9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -781,7 +787,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -879,69 +885,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="6"/>
+      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -950,15 +933,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -1106,62 +1088,42 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1171,25 +1133,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1406,25 +1349,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1441,4 +1385,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C1412-EEA8-4EE3-A163-C2F5C7E2EB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAE4316-C31A-4213-A2DB-F675F0FEDD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -933,14 +933,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -1127,12 +1128,41 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1349,15 +1379,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1369,6 +1390,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1387,14 +1416,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAE4316-C31A-4213-A2DB-F675F0FEDD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC97A0AC-703F-4974-BA5A-24C9F5C8FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -936,7 +936,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21Dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC97A0AC-703F-4974-BA5A-24C9F5C8FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F8B69-7296-43C8-B09D-1AA51ABF0582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
     <sheet name="Logout" sheetId="6" r:id="rId2"/>
+    <sheet name="Home" sheetId="8" r:id="rId3"/>
+    <sheet name="ApprovalAuditHistory" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="117">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -142,13 +144,259 @@
   </si>
   <si>
     <t>testT2901_1</t>
+  </si>
+  <si>
+    <t>testT4244</t>
+  </si>
+  <si>
+    <t>NEW_VALUE</t>
+  </si>
+  <si>
+    <t>ASSIGNED_TO_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>STEP_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>RECALL_VERIFY</t>
+  </si>
+  <si>
+    <t>NEW_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>ORIGINAL_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>USER_VERIFY</t>
+  </si>
+  <si>
+    <t>FIELD_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY</t>
+  </si>
+  <si>
+    <t>SCREENING_HISTORY</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>New Providers created in past 120 days</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Last Modified Date</t>
+  </si>
+  <si>
+    <t>Service Category</t>
+  </si>
+  <si>
+    <t>Service Type Description</t>
+  </si>
+  <si>
+    <t>Service Type Name</t>
+  </si>
+  <si>
+    <t>Service Types</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Related To</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Current Task Assignments</t>
+  </si>
+  <si>
+    <t>NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>NEWPROVIDER120DAYS_VERIFY</t>
+  </si>
+  <si>
+    <t>MYORGANIZATION</t>
+  </si>
+  <si>
+    <t>MYTASKLIST</t>
+  </si>
+  <si>
+    <t>LASTMODIEFIEDDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICECATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICETYPEDESCRIPTION_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICETYPENAME_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICETYPES_VERIFY</t>
+  </si>
+  <si>
+    <t>SOURCE_VERIFY</t>
+  </si>
+  <si>
+    <t>PRIORITY_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATEDTO_VERIFY</t>
+  </si>
+  <si>
+    <t>SUBJECT_VERIFY</t>
+  </si>
+  <si>
+    <t>DUEDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>CURRENTTASKASSIGNMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>PROVIDERSEARCH</t>
+  </si>
+  <si>
+    <t>FOCUSED_SEARCH_TAB</t>
+  </si>
+  <si>
+    <t>HOME_TAB</t>
+  </si>
+  <si>
+    <t>ORGANIZATIONS</t>
+  </si>
+  <si>
+    <t>SHOWNAVIGATIONMENUE</t>
+  </si>
+  <si>
+    <t>RECORD_ID</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>SCREENINGS_WITHIN_MY_COUNTY</t>
+  </si>
+  <si>
+    <t>REPORTS</t>
+  </si>
+  <si>
+    <t>CONTACT_LOG</t>
+  </si>
+  <si>
+    <t>HOUSEHOLDS</t>
+  </si>
+  <si>
+    <t>PERSON_SEARCH</t>
+  </si>
+  <si>
+    <t>SERVICE_TYPES</t>
+  </si>
+  <si>
+    <t>SERVICE_NAMES</t>
+  </si>
+  <si>
+    <t>SERVICE_CATEGORIES</t>
+  </si>
+  <si>
+    <t>PERSONS</t>
+  </si>
+  <si>
+    <t>FOLIO</t>
+  </si>
+  <si>
+    <t>SCREENINGS</t>
+  </si>
+  <si>
+    <t>SCR_BELL_NOTIFICATION</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>APP_NAV_MENU</t>
+  </si>
+  <si>
+    <t>MYLOCATION</t>
+  </si>
+  <si>
+    <t>NEWLOCATION120DAYS_VERIFY</t>
+  </si>
+  <si>
+    <t>New Locations created in past 120 days</t>
+  </si>
+  <si>
+    <t>ORGCATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>LOCATIONCATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>Organization Category</t>
+  </si>
+  <si>
+    <t>Location Category</t>
+  </si>
+  <si>
+    <t>SCR_ID1</t>
+  </si>
+  <si>
+    <t>SCR_ID2</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>FOLIO_ID1</t>
+  </si>
+  <si>
+    <t>testPOM</t>
+  </si>
+  <si>
+    <t>Screening History</t>
+  </si>
+  <si>
+    <t>Contra Costa</t>
+  </si>
+  <si>
+    <t>HL_SUPERVISOR2</t>
+  </si>
+  <si>
+    <t>HLSupervisorContraCosta2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +417,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +477,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -202,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -216,6 +528,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,26 +862,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,8 +910,11 @@
       <c r="I1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J1" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -595,7 +931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -612,7 +948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -622,11 +958,12 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -648,7 +985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -670,7 +1007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -686,27 +1023,30 @@
       <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="J7" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -721,60 +1061,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
+      <c r="G12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -783,20 +1125,20 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -804,18 +1146,13 @@
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -823,15 +1160,10 @@
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -845,7 +1177,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -857,74 +1189,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+    <row r="18" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="H18" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="11">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -933,17 +1276,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A10:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1148,21 +1491,1430 @@
         <v>30</v>
       </c>
     </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
+  <dimension ref="A1:AS18"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.26953125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.7265625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="20.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.26953125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="30.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.81640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="U2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="19"/>
+    </row>
+    <row r="4" spans="1:45" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="19"/>
+      <c r="AG4" s="20"/>
+    </row>
+    <row r="5" spans="1:45" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" s="22"/>
+      <c r="AG5" s="23"/>
+      <c r="AP5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ5" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="22"/>
+      <c r="AG6" s="23"/>
+      <c r="AP6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ6" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z7" s="22"/>
+      <c r="AG7" s="23"/>
+      <c r="AP7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ7" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="14"/>
+      <c r="AG8" s="15"/>
+    </row>
+    <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="14"/>
+      <c r="AG9" s="15"/>
+    </row>
+    <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="U10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO10" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="24"/>
+    </row>
+    <row r="12" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z12" s="24"/>
+    </row>
+    <row r="13" spans="1:45" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z13" s="31"/>
+      <c r="AG13" s="32"/>
+    </row>
+    <row r="14" spans="1:45" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE14" s="19"/>
+    </row>
+    <row r="15" spans="1:45" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE15" s="19"/>
+    </row>
+    <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="V16" s="25"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C0EF4-5C5D-4057-B6F9-0807F6421FD3}">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7265625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="19.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.26953125" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.81640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="28">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1379,6 +3131,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1390,14 +3151,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1416,6 +3169,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21\21Feb\21Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996C0726-B8D7-48F5-AFAC-C67163D2E67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B4557-88D2-4C38-9175-25D0798BA040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="202">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -236,6 +236,12 @@
     <t>CaseChildLocationSetup</t>
   </si>
   <si>
+    <t>testT4245</t>
+  </si>
+  <si>
+    <t>testT4249</t>
+  </si>
+  <si>
     <t>PROFILE_ICON</t>
   </si>
   <si>
@@ -636,9 +642,6 @@
   </si>
   <si>
     <t>Fresno</t>
-  </si>
-  <si>
-    <t>testT4245</t>
   </si>
   <si>
     <t>testT4149</t>
@@ -770,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -785,7 +788,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,11 +1102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2085,7 +2087,7 @@
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -2108,15 +2110,29 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1">
+        <v>66</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2128,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2155,33 +2171,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2195,13 +2211,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2215,13 +2231,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2235,13 +2251,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2255,13 +2271,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2275,13 +2291,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2295,13 +2311,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2315,18 +2331,18 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -2335,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -2355,13 +2371,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2375,13 +2391,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -2395,13 +2411,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2415,13 +2431,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -2435,13 +2451,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -2455,13 +2471,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -2475,13 +2491,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -2495,13 +2511,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2515,13 +2531,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -2535,13 +2551,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -2555,13 +2571,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -2575,13 +2591,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2595,13 +2611,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2615,13 +2631,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -2635,13 +2651,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -2655,13 +2671,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -2675,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2695,13 +2711,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2715,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2735,13 +2751,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2755,13 +2771,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -2775,13 +2791,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2795,13 +2811,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -2815,18 +2831,18 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -2835,13 +2851,53 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2853,9 +2909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="BY1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2939,235 +2995,235 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AI1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AF1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AW1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX1" s="9" t="s">
+      <c r="BR1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AY1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="BE1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="BS1" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BT1" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BU1" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BV1" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BW1" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BX1" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BY1" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BZ1" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="CA1" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="CB1" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3185,37 +3241,37 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="AG2" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
@@ -3226,43 +3282,43 @@
       <c r="AY2" s="9"/>
       <c r="AZ2" s="9"/>
       <c r="BA2" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BD2" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BE2" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BG2" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BH2" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BI2" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BJ2" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BK2" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BL2" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BM2" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BN2" s="8"/>
       <c r="BO2" s="8"/>
@@ -3279,19 +3335,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BA3" s="9"/>
     </row>
@@ -3306,19 +3362,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL4" s="9"/>
       <c r="BA4" s="10"/>
@@ -3334,36 +3390,36 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL5" s="10"/>
       <c r="BA5" s="9"/>
       <c r="BJ5" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BK5" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3377,27 +3433,27 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AL6" s="10"/>
       <c r="BA6" s="9"/>
       <c r="BJ6" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BK6" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3411,36 +3467,36 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="AL7" s="10"/>
       <c r="BA7" s="9"/>
       <c r="BJ7" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3454,19 +3510,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL8" s="9"/>
       <c r="BA8" s="11"/>
@@ -3482,19 +3538,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL9" s="9"/>
       <c r="BA9" s="11"/>
@@ -3514,37 +3570,37 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="AG10" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL10" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM10" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN10" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AO10" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AP10" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AR10" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
@@ -3555,31 +3611,31 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BB10" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BC10" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BD10" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BE10" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BG10" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BH10" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BI10" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3593,31 +3649,31 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL11" s="11"/>
     </row>
@@ -3632,28 +3688,28 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL12" s="11"/>
     </row>
@@ -3668,61 +3724,61 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="AL13" s="11"/>
       <c r="BA13" s="9"/>
@@ -3738,34 +3794,34 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AQ14" s="9"/>
     </row>
     <row r="15" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -3774,28 +3830,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AQ15" s="9"/>
     </row>
@@ -3810,29 +3866,29 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AH16" s="12"/>
     </row>
@@ -3847,58 +3903,58 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BN17" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BQ17" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR17" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BS17" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BT17" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BU17" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BV17" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BW17" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BX17" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3912,43 +3968,43 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="AI18" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BO18" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BQ18" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR18" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BS18" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BT18" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BU18" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BV18" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BW18" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CA18" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3967,51 +4023,51 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="AI19" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BP19" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BQ19" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BR19" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BS19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BT19" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BU19" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BV19" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BW19" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BX19" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BY19" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BZ19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="CA19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="CA19" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="CB19" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -4020,10 +4076,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4037,31 +4093,31 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4086,31 +4142,31 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4135,28 +4191,28 @@
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AQ23" s="9"/>
     </row>
@@ -4171,28 +4227,28 @@
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AQ24" s="9"/>
     </row>
@@ -4207,58 +4263,58 @@
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4272,28 +4328,28 @@
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AQ26" s="9"/>
     </row>
@@ -4308,28 +4364,28 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AQ27" s="9"/>
     </row>
@@ -4344,19 +4400,19 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J28" s="2"/>
       <c r="AH28" s="12"/>
@@ -4372,136 +4428,136 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AN29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AQ29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AS29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AT29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AU29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AV29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AW29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AX29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AY29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AZ29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4515,19 +4571,19 @@
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4541,55 +4597,55 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>54</v>
@@ -4598,7 +4654,7 @@
         <v>54</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>54</v>
@@ -4779,34 +4835,34 @@
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -4826,13 +4882,13 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4846,64 +4902,64 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4917,58 +4973,58 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4982,58 +5038,58 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5047,25 +5103,25 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5077,7 +5133,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -5151,25 +5207,25 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5181,7 +5237,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -5255,13 +5311,13 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5276,13 +5332,13 @@
       </c>
       <c r="F40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5296,58 +5352,55 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA41" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AL41" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM41" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AN41" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO41" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AP41" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AQ41" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AR41" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5361,25 +5414,25 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5391,7 +5444,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -5456,7 +5509,7 @@
     </row>
     <row r="43" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -5465,114 +5518,117 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:80" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="13">
-        <v>1</v>
-      </c>
-      <c r="C44" s="13">
-        <v>1</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="N44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="P44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="R44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="S44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>70</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR44" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5585,7 +5641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C0EF4-5C5D-4057-B6F9-0807F6421FD3}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -5618,46 +5674,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5672,36 +5728,36 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5715,43 +5771,43 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5765,43 +5821,43 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5815,43 +5871,43 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5865,46 +5921,46 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5918,46 +5974,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5971,46 +6027,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6024,51 +6080,51 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -6077,46 +6133,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6130,46 +6186,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6183,46 +6239,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="N12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6236,46 +6292,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="N13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6289,46 +6345,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="N14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6338,6 +6394,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -6345,15 +6410,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6574,19 +6630,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21\21Feb\21Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B4557-88D2-4C38-9175-25D0798BA040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB58F81-4AA0-4B33-BEE0-B041D5910A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="202">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -773,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -788,6 +788,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
@@ -2907,11 +2908,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:CB44"/>
+  <dimension ref="A1:CB45"/>
   <sheetViews>
-    <sheetView topLeftCell="BY1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5631,6 +5632,63 @@
         <v>73</v>
       </c>
     </row>
+    <row r="45" spans="1:80" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="13">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6394,25 +6452,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6629,25 +6668,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6666,6 +6706,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21\21Feb\21Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB58F81-4AA0-4B33-BEE0-B041D5910A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824FBE7A-8C93-4B44-A5DF-2D547AFC911D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -2910,9 +2910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5636,7 +5636,9 @@
       <c r="A45" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
       <c r="C45" s="13">
         <v>1</v>
       </c>
@@ -6452,6 +6454,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6668,26 +6689,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6706,24 +6726,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21\21Feb\21Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824FBE7A-8C93-4B44-A5DF-2D547AFC911D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85CFE57-A977-436F-AE51-8D0C27214C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2147,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2910,9 +2910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U45" sqref="U45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5636,7 +5636,7 @@
       <c r="A45" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="13">

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\latestFromGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85CFE57-A977-436F-AE51-8D0C27214C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96020CDD-B0E0-4837-A723-810ACE4929A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="202">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -773,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -787,6 +787,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -2147,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -2908,11 +2911,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:CB45"/>
+  <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:CB46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5691,6 +5694,126 @@
         <v>72</v>
       </c>
     </row>
+    <row r="46" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="15">
+        <v>1</v>
+      </c>
+      <c r="C46" s="16">
+        <v>1</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="R46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="S46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="T46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="16"/>
+      <c r="AI46" s="16"/>
+      <c r="AJ46" s="16"/>
+      <c r="AK46" s="16"/>
+      <c r="AL46" s="16"/>
+      <c r="AM46" s="16"/>
+      <c r="AN46" s="16"/>
+      <c r="AO46" s="16"/>
+      <c r="AP46" s="16"/>
+      <c r="AQ46" s="16"/>
+      <c r="AR46" s="16"/>
+      <c r="AS46" s="16"/>
+      <c r="AT46" s="16"/>
+      <c r="AU46" s="16"/>
+      <c r="AV46" s="16"/>
+      <c r="AW46" s="16"/>
+      <c r="AX46" s="16"/>
+      <c r="AY46" s="16"/>
+      <c r="AZ46" s="16"/>
+      <c r="BA46" s="16"/>
+      <c r="BB46" s="16"/>
+      <c r="BC46" s="16"/>
+      <c r="BD46" s="16"/>
+      <c r="BE46" s="16"/>
+      <c r="BF46" s="16"/>
+      <c r="BG46" s="16"/>
+      <c r="BH46" s="16"/>
+      <c r="BI46" s="16"/>
+      <c r="BJ46" s="16"/>
+      <c r="BK46" s="16"/>
+      <c r="BL46" s="16"/>
+      <c r="BM46" s="16"/>
+      <c r="BN46" s="16"/>
+      <c r="BO46" s="16"/>
+      <c r="BP46" s="16"/>
+      <c r="BQ46" s="16"/>
+      <c r="BR46" s="16"/>
+      <c r="BS46" s="16"/>
+      <c r="BT46" s="16"/>
+      <c r="BU46" s="16"/>
+      <c r="BV46" s="16"/>
+      <c r="BW46" s="16"/>
+      <c r="BX46" s="16"/>
+      <c r="BY46" s="16"/>
+      <c r="BZ46" s="16"/>
+      <c r="CA46" s="16"/>
+      <c r="CB46" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6454,25 +6577,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6689,25 +6793,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6726,6 +6831,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
